--- a/Beispieltabelle.xlsx
+++ b/Beispieltabelle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10725" windowHeight="13740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10725" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Grundtabelle" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="98">
   <si>
     <t>Schlüssel</t>
   </si>
@@ -89,6 +89,237 @@
   </si>
   <si>
     <t>UUID</t>
+  </si>
+  <si>
+    <t>Aufteilung der Gesamttabelle in zwei Tabellen</t>
+  </si>
+  <si>
+    <t>Tabelle 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struktur </t>
+  </si>
+  <si>
+    <t>Tabelle 2</t>
+  </si>
+  <si>
+    <t>Inhalt</t>
+  </si>
+  <si>
+    <t>Mehrfach-Einträge können hierbei gelöscht werden</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>x11</t>
+  </si>
+  <si>
+    <t>x12</t>
+  </si>
+  <si>
+    <t>x13</t>
+  </si>
+  <si>
+    <t>x21</t>
+  </si>
+  <si>
+    <t>x22</t>
+  </si>
+  <si>
+    <t>x23</t>
+  </si>
+  <si>
+    <t>x31</t>
+  </si>
+  <si>
+    <t>x32</t>
+  </si>
+  <si>
+    <t>x33</t>
+  </si>
+  <si>
+    <t>x41</t>
+  </si>
+  <si>
+    <t>x42</t>
+  </si>
+  <si>
+    <t>x43</t>
+  </si>
+  <si>
+    <t>x51</t>
+  </si>
+  <si>
+    <t>x52</t>
+  </si>
+  <si>
+    <t>x53</t>
+  </si>
+  <si>
+    <t>x61</t>
+  </si>
+  <si>
+    <t>x62</t>
+  </si>
+  <si>
+    <t>x63</t>
+  </si>
+  <si>
+    <t>x71</t>
+  </si>
+  <si>
+    <t>x72</t>
+  </si>
+  <si>
+    <t>x73</t>
+  </si>
+  <si>
+    <t>x81</t>
+  </si>
+  <si>
+    <t>x82</t>
+  </si>
+  <si>
+    <t>x83</t>
+  </si>
+  <si>
+    <t>x91</t>
+  </si>
+  <si>
+    <t>x92</t>
+  </si>
+  <si>
+    <t>x93</t>
+  </si>
+  <si>
+    <t>x101</t>
+  </si>
+  <si>
+    <t>x102</t>
+  </si>
+  <si>
+    <t>x103</t>
+  </si>
+  <si>
+    <t>Elemente des Speicherinhalts werden auch als Kinder angelegt</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>U19</t>
+  </si>
+  <si>
+    <t>U20</t>
+  </si>
+  <si>
+    <t>U21</t>
+  </si>
+  <si>
+    <t>U22</t>
+  </si>
+  <si>
+    <t>U23</t>
+  </si>
+  <si>
+    <t>U24</t>
+  </si>
+  <si>
+    <t>U25</t>
+  </si>
+  <si>
+    <t>U26</t>
+  </si>
+  <si>
+    <t>U27</t>
+  </si>
+  <si>
+    <t>U28</t>
+  </si>
+  <si>
+    <t>U29</t>
+  </si>
+  <si>
+    <t>U30</t>
+  </si>
+  <si>
+    <t>U31</t>
+  </si>
+  <si>
+    <t>U32</t>
+  </si>
+  <si>
+    <t>U33</t>
+  </si>
+  <si>
+    <t>U34</t>
+  </si>
+  <si>
+    <t>U35</t>
+  </si>
+  <si>
+    <t>U36</t>
+  </si>
+  <si>
+    <t>U37</t>
+  </si>
+  <si>
+    <t>Da die Elemente des Speicherinhalts von Speicherobjekt zu Speicherobjekt unterschiedlich sind, benötigen sie eine eindeutige Identifikation. Die geschieht über eine UUID.</t>
+  </si>
+  <si>
+    <t>Eltern und Kinder werden über die UUID zugeordnet.</t>
   </si>
 </sst>
 </file>
@@ -132,9 +363,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -415,18 +659,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +694,50 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -450,8 +747,41 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -461,8 +791,41 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -472,8 +835,41 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -486,8 +882,41 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -497,8 +926,41 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -511,8 +973,41 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -525,8 +1020,41 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -536,8 +1064,41 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -547,8 +1108,41 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -558,8 +1152,1161 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>69</v>
+      </c>
+      <c r="R14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" t="s">
+        <v>59</v>
+      </c>
+      <c r="U14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s">
+        <v>42</v>
+      </c>
+      <c r="T21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" t="s">
+        <v>59</v>
+      </c>
+      <c r="U22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>78</v>
+      </c>
+      <c r="R23" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>79</v>
+      </c>
+      <c r="R24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" t="s">
+        <v>44</v>
+      </c>
+      <c r="T24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>80</v>
+      </c>
+      <c r="R25" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25" t="s">
+        <v>45</v>
+      </c>
+      <c r="T25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>77</v>
+      </c>
+      <c r="R26" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" t="s">
+        <v>59</v>
+      </c>
+      <c r="U26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>81</v>
+      </c>
+      <c r="R27" t="s">
+        <v>18</v>
+      </c>
+      <c r="S27" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>82</v>
+      </c>
+      <c r="R28" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" t="s">
+        <v>47</v>
+      </c>
+      <c r="T28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>83</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>83</v>
+      </c>
+      <c r="R29" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" t="s">
+        <v>48</v>
+      </c>
+      <c r="T29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>84</v>
+      </c>
+      <c r="R30" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" t="s">
+        <v>15</v>
+      </c>
+      <c r="T30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>85</v>
+      </c>
+      <c r="R31" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" t="s">
+        <v>49</v>
+      </c>
+      <c r="T31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>86</v>
+      </c>
+      <c r="R32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" t="s">
+        <v>50</v>
+      </c>
+      <c r="T32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>87</v>
+      </c>
+      <c r="R33" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" t="s">
+        <v>51</v>
+      </c>
+      <c r="T33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" t="s">
+        <v>88</v>
+      </c>
+      <c r="L34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>88</v>
+      </c>
+      <c r="R34" t="s">
+        <v>13</v>
+      </c>
+      <c r="S34" t="s">
+        <v>16</v>
+      </c>
+      <c r="T34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>89</v>
+      </c>
+      <c r="R35" t="s">
+        <v>18</v>
+      </c>
+      <c r="S35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s">
+        <v>53</v>
+      </c>
+      <c r="N36" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>90</v>
+      </c>
+      <c r="R36" t="s">
+        <v>27</v>
+      </c>
+      <c r="S36" t="s">
+        <v>53</v>
+      </c>
+      <c r="T36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>54</v>
+      </c>
+      <c r="N37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>91</v>
+      </c>
+      <c r="R37" t="s">
+        <v>19</v>
+      </c>
+      <c r="S37" t="s">
+        <v>54</v>
+      </c>
+      <c r="T37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>92</v>
+      </c>
+      <c r="R38" t="s">
+        <v>14</v>
+      </c>
+      <c r="S38" t="s">
+        <v>17</v>
+      </c>
+      <c r="T38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L39" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>93</v>
+      </c>
+      <c r="R39" t="s">
+        <v>18</v>
+      </c>
+      <c r="S39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
+        <v>94</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>94</v>
+      </c>
+      <c r="R40" t="s">
+        <v>27</v>
+      </c>
+      <c r="S40" t="s">
+        <v>56</v>
+      </c>
+      <c r="T40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>95</v>
+      </c>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>95</v>
+      </c>
+      <c r="R41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S41" t="s">
+        <v>57</v>
+      </c>
+      <c r="T41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="6:21" ht="285" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="Q44" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="Q44:U44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -567,278 +2314,2025 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11">
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" t="s">
+        <v>82</v>
+      </c>
+      <c r="O28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" t="s">
+        <v>83</v>
+      </c>
+      <c r="O29" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="K30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="N30" t="s">
+        <v>84</v>
+      </c>
+      <c r="O30" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="P30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" t="s">
+        <v>85</v>
+      </c>
+      <c r="O31" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" t="s">
+        <v>86</v>
+      </c>
+      <c r="O32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" t="s">
+        <v>87</v>
+      </c>
+      <c r="O33" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>88</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" t="s">
+        <v>88</v>
+      </c>
+      <c r="O34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" t="s">
+        <v>89</v>
+      </c>
+      <c r="O35" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" t="s">
+        <v>90</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" t="s">
+        <v>91</v>
+      </c>
+      <c r="O37" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O38" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>93</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" t="s">
+        <v>93</v>
+      </c>
+      <c r="O39" t="s">
+        <v>18</v>
+      </c>
+      <c r="P39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>94</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" t="s">
+        <v>94</v>
+      </c>
+      <c r="O40" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>95</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" t="s">
+        <v>95</v>
+      </c>
+      <c r="O41" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="5:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="N44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="N44:Q44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>95</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Beispieltabelle.xlsx
+++ b/Beispieltabelle.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10725" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10725" windowHeight="13740"/>
   </bookViews>
   <sheets>
-    <sheet name="Grundtabelle" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle Struktur" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle Inhalt" sheetId="3" r:id="rId3"/>
+    <sheet name="Grundtabelle neu" sheetId="4" r:id="rId1"/>
+    <sheet name="Grundtabelle" sheetId="1" r:id="rId2"/>
+    <sheet name="Tabelle Struktur" sheetId="2" r:id="rId3"/>
+    <sheet name="Tabelle Inhalt" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="98">
   <si>
     <t>Schlüssel</t>
   </si>
@@ -366,18 +367,18 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,13 +928,16 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
         <v>59</v>
@@ -977,10 +981,10 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
@@ -1024,10 +1028,10 @@
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" t="s">
         <v>64</v>
@@ -1068,10 +1072,10 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
         <v>65</v>
@@ -1109,13 +1113,13 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
       </c>
       <c r="K10" t="s">
         <v>59</v>
@@ -1156,6 +1160,1660 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>69</v>
+      </c>
+      <c r="R14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" t="s">
+        <v>59</v>
+      </c>
+      <c r="U14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s">
+        <v>42</v>
+      </c>
+      <c r="T21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" t="s">
+        <v>59</v>
+      </c>
+      <c r="U22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>78</v>
+      </c>
+      <c r="R23" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>79</v>
+      </c>
+      <c r="R24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" t="s">
+        <v>44</v>
+      </c>
+      <c r="T24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>80</v>
+      </c>
+      <c r="R25" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25" t="s">
+        <v>45</v>
+      </c>
+      <c r="T25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>77</v>
+      </c>
+      <c r="R26" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" t="s">
+        <v>59</v>
+      </c>
+      <c r="U26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>81</v>
+      </c>
+      <c r="R27" t="s">
+        <v>18</v>
+      </c>
+      <c r="S27" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>82</v>
+      </c>
+      <c r="R28" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" t="s">
+        <v>47</v>
+      </c>
+      <c r="T28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>83</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>83</v>
+      </c>
+      <c r="R29" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" t="s">
+        <v>48</v>
+      </c>
+      <c r="T29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>84</v>
+      </c>
+      <c r="R30" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" t="s">
+        <v>15</v>
+      </c>
+      <c r="T30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>85</v>
+      </c>
+      <c r="R31" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" t="s">
+        <v>49</v>
+      </c>
+      <c r="T31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>86</v>
+      </c>
+      <c r="R32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S32" t="s">
+        <v>50</v>
+      </c>
+      <c r="T32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>87</v>
+      </c>
+      <c r="R33" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" t="s">
+        <v>51</v>
+      </c>
+      <c r="T33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>88</v>
+      </c>
+      <c r="L34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>88</v>
+      </c>
+      <c r="R34" t="s">
+        <v>13</v>
+      </c>
+      <c r="S34" t="s">
+        <v>16</v>
+      </c>
+      <c r="T34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>89</v>
+      </c>
+      <c r="R35" t="s">
+        <v>18</v>
+      </c>
+      <c r="S35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s">
+        <v>53</v>
+      </c>
+      <c r="N36" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>90</v>
+      </c>
+      <c r="R36" t="s">
+        <v>27</v>
+      </c>
+      <c r="S36" t="s">
+        <v>53</v>
+      </c>
+      <c r="T36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>54</v>
+      </c>
+      <c r="N37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>91</v>
+      </c>
+      <c r="R37" t="s">
+        <v>19</v>
+      </c>
+      <c r="S37" t="s">
+        <v>54</v>
+      </c>
+      <c r="T37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>92</v>
+      </c>
+      <c r="R38" t="s">
+        <v>14</v>
+      </c>
+      <c r="S38" t="s">
+        <v>17</v>
+      </c>
+      <c r="T38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L39" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>93</v>
+      </c>
+      <c r="R39" t="s">
+        <v>18</v>
+      </c>
+      <c r="S39" t="s">
+        <v>55</v>
+      </c>
+      <c r="T39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
+        <v>94</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>94</v>
+      </c>
+      <c r="R40" t="s">
+        <v>27</v>
+      </c>
+      <c r="S40" t="s">
+        <v>56</v>
+      </c>
+      <c r="T40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>95</v>
+      </c>
+      <c r="L41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>95</v>
+      </c>
+      <c r="R41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S41" t="s">
+        <v>57</v>
+      </c>
+      <c r="T41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="6:21" ht="285" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="2"/>
+      <c r="K44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="Q44" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="Q44:U44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U44"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>34</v>
       </c>
       <c r="H11" t="s">
@@ -2279,27 +3937,27 @@
       </c>
     </row>
     <row r="44" spans="6:21" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="3" t="s">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="Q44" s="6" t="s">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="Q44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2312,11 +3970,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
@@ -3507,23 +5165,23 @@
       </c>
     </row>
     <row r="44" spans="5:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="I44" s="3" t="s">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="I44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="N44" s="3" t="s">
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="N44" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3535,7 +5193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R44"/>
   <sheetViews>
@@ -3893,10 +5551,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="6"/>
       <c r="G14" t="s">
         <v>27</v>
       </c>
@@ -4322,11 +5980,11 @@
       </c>
     </row>
     <row r="44" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Beispieltabelle.xlsx
+++ b/Beispieltabelle.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="10725" windowHeight="13740"/>
   </bookViews>
   <sheets>
-    <sheet name="Grundtabelle neu" sheetId="4" r:id="rId1"/>
-    <sheet name="Grundtabelle" sheetId="1" r:id="rId2"/>
-    <sheet name="Tabelle Struktur" sheetId="2" r:id="rId3"/>
-    <sheet name="Tabelle Inhalt" sheetId="3" r:id="rId4"/>
+    <sheet name="Datenbearbeitung" sheetId="5" r:id="rId1"/>
+    <sheet name="Grundtabelle neu" sheetId="4" r:id="rId2"/>
+    <sheet name="Grundtabelle" sheetId="1" r:id="rId3"/>
+    <sheet name="Tabelle Struktur" sheetId="2" r:id="rId4"/>
+    <sheet name="Tabelle Inhalt" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="118">
   <si>
     <t>Schlüssel</t>
   </si>
@@ -321,13 +322,73 @@
   </si>
   <si>
     <t>Eltern und Kinder werden über die UUID zugeordnet.</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Request-Sender</t>
+  </si>
+  <si>
+    <t>Request-Empfänger</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>Persistenz</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>keine Daten</t>
+  </si>
+  <si>
+    <t>get()</t>
+  </si>
+  <si>
+    <t>hole()</t>
+  </si>
+  <si>
+    <t>Daten des Speicherobjekts</t>
+  </si>
+  <si>
+    <t>Analysedaten CRUD</t>
+  </si>
+  <si>
+    <t>Analysedaten REST</t>
+  </si>
+  <si>
+    <t>ð</t>
+  </si>
+  <si>
+    <t>ï</t>
+  </si>
+  <si>
+    <t>Schlüssel Speicherobjekt</t>
+  </si>
+  <si>
+    <t>Pfad Speicherobjekt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +403,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -364,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -379,6 +446,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,10 +730,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I41"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2315,7 +2523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U44"/>
   <sheetViews>
@@ -3970,7 +4178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
@@ -5193,7 +5401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R44"/>
   <sheetViews>

--- a/Beispieltabelle.xlsx
+++ b/Beispieltabelle.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="125">
   <si>
     <t>Schlüssel</t>
   </si>
@@ -382,6 +382,27 @@
   </si>
   <si>
     <t>Pfad Speicherobjekt</t>
+  </si>
+  <si>
+    <t>schreibe()</t>
+  </si>
+  <si>
+    <t>post()</t>
+  </si>
+  <si>
+    <t>UDID</t>
+  </si>
+  <si>
+    <t>ueberschreibe()</t>
+  </si>
+  <si>
+    <t>put()</t>
+  </si>
+  <si>
+    <t>UDIDs</t>
+  </si>
+  <si>
+    <t>Speicherinhalte</t>
   </si>
 </sst>
 </file>
@@ -438,6 +459,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -446,9 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,14 +751,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
@@ -765,9 +787,9 @@
       <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -776,19 +798,19 @@
       <c r="C5" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>114</v>
       </c>
       <c r="E5" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>114</v>
       </c>
       <c r="G5" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>114</v>
       </c>
       <c r="I5" t="s">
@@ -802,19 +824,19 @@
       <c r="C7" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>115</v>
       </c>
       <c r="G7" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>115</v>
       </c>
       <c r="I7" t="s">
@@ -841,22 +863,213 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2489,28 +2702,28 @@
     </row>
     <row r="44" spans="6:21" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J44" s="2"/>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="Q44" s="5" t="s">
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="Q44" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
     </row>
     <row r="52" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4145,27 +4358,27 @@
       </c>
     </row>
     <row r="44" spans="6:21" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="Q44" s="5" t="s">
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="Q44" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5373,23 +5586,23 @@
       </c>
     </row>
     <row r="44" spans="5:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="I44" s="4" t="s">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="I44" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="N44" s="4" t="s">
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="N44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5759,10 +5972,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="G14" t="s">
         <v>27</v>
       </c>

--- a/Beispieltabelle.xlsx
+++ b/Beispieltabelle.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="130">
   <si>
     <t>Schlüssel</t>
   </si>
@@ -378,9 +378,6 @@
     <t>ï</t>
   </si>
   <si>
-    <t>Schlüssel Speicherobjekt</t>
-  </si>
-  <si>
     <t>Pfad Speicherobjekt</t>
   </si>
   <si>
@@ -403,6 +400,24 @@
   </si>
   <si>
     <t>Speicherinhalte</t>
+  </si>
+  <si>
+    <t>aendere()</t>
+  </si>
+  <si>
+    <t>UDIs</t>
+  </si>
+  <si>
+    <t>unveränderte Speicherinhalte</t>
+  </si>
+  <si>
+    <t>patch()</t>
+  </si>
+  <si>
+    <t>loesche()</t>
+  </si>
+  <si>
+    <t>delete()</t>
   </si>
 </sst>
 </file>
@@ -751,326 +766,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>109</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>112</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>112</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>113</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>118</v>
       </c>
-      <c r="C13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I18" t="s">
+      <c r="H18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>112</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
         <v>112</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>113</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>121</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="B35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="D35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="F35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G26" t="s">
+      <c r="H35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="4" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="F41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="H41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Beispieltabelle.xlsx
+++ b/Beispieltabelle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10725" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10725" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datenbearbeitung" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="135">
   <si>
     <t>Schlüssel</t>
   </si>
@@ -387,9 +387,6 @@
     <t>post()</t>
   </si>
   <si>
-    <t>UDID</t>
-  </si>
-  <si>
     <t>ueberschreibe()</t>
   </si>
   <si>
@@ -405,9 +402,6 @@
     <t>aendere()</t>
   </si>
   <si>
-    <t>UDIs</t>
-  </si>
-  <si>
     <t>unveränderte Speicherinhalte</t>
   </si>
   <si>
@@ -418,6 +412,27 @@
   </si>
   <si>
     <t>delete()</t>
+  </si>
+  <si>
+    <t>Anmerkungen</t>
+  </si>
+  <si>
+    <t>Der Pfad wird benötigt, um das Speicherobjekt zu finden. Wird er a) als Liste in die Tabelle geschrieben oder b) jede Hierarchie als Schlüssel-Wert-Paar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + neuer Schlüssel für die neu einzurichtende Ressource / Änderung bei Eintrag von Eltern</t>
+  </si>
+  <si>
+    <t>UDIDs für alle einzelnen Speicherelemente</t>
+  </si>
+  <si>
+    <t>Änderung bei Eintrag von Eltern / Änderung bei Eintrag von Kindern</t>
+  </si>
+  <si>
+    <t>UDIDs für für die Speicherelemente, die überschrieben werden</t>
+  </si>
+  <si>
+    <t>Änderung bei Eintrag von Eltern / Änderung bei Eintrag von Kindern nur für neue Speicherelemente</t>
   </si>
 </sst>
 </file>
@@ -467,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -485,6 +500,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,10 +802,11 @@
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="102.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -797,16 +822,20 @@
       <c r="H1" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4"/>
       <c r="G3" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -831,8 +860,14 @@
       <c r="H5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -858,7 +893,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>112</v>
       </c>
@@ -869,7 +904,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>113</v>
       </c>
@@ -877,38 +912,39 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O11" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>116</v>
       </c>
@@ -918,8 +954,11 @@
       <c r="H14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>0</v>
       </c>
@@ -927,15 +966,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -961,7 +1003,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>112</v>
       </c>
@@ -972,7 +1014,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>113</v>
       </c>
@@ -980,38 +1022,38 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>114</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>116</v>
       </c>
@@ -1021,8 +1063,11 @@
       <c r="H25" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>0</v>
       </c>
@@ -1030,17 +1075,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="I27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
         <v>111</v>
@@ -1064,7 +1112,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>112</v>
       </c>
@@ -1075,7 +1123,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>113</v>
       </c>
@@ -1083,38 +1131,38 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>114</v>
       </c>
       <c r="H35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>116</v>
       </c>
@@ -1124,8 +1172,11 @@
       <c r="H36" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>0</v>
       </c>
@@ -1133,25 +1184,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>125</v>
-      </c>
-      <c r="H38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>127</v>
       </c>
       <c r="B41" t="s">
         <v>111</v>
@@ -1175,7 +1229,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>112</v>
       </c>
@@ -1186,7 +1240,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>113</v>
       </c>
@@ -1194,14 +1248,14 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
         <v>108</v>
@@ -1218,7 +1272,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
@@ -1242,6 +1296,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I5:I6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1251,7 +1308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>

--- a/Beispieltabelle.xlsx
+++ b/Beispieltabelle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10725" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10725" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Datenbearbeitung" sheetId="5" r:id="rId1"/>
@@ -393,9 +393,6 @@
     <t>put()</t>
   </si>
   <si>
-    <t>UDIDs</t>
-  </si>
-  <si>
     <t>Speicherinhalte</t>
   </si>
   <si>
@@ -423,16 +420,19 @@
     <t xml:space="preserve"> + neuer Schlüssel für die neu einzurichtende Ressource / Änderung bei Eintrag von Eltern</t>
   </si>
   <si>
-    <t>UDIDs für alle einzelnen Speicherelemente</t>
-  </si>
-  <si>
     <t>Änderung bei Eintrag von Eltern / Änderung bei Eintrag von Kindern</t>
   </si>
   <si>
-    <t>UDIDs für für die Speicherelemente, die überschrieben werden</t>
-  </si>
-  <si>
     <t>Änderung bei Eintrag von Eltern / Änderung bei Eintrag von Kindern nur für neue Speicherelemente</t>
+  </si>
+  <si>
+    <t>UUIDs</t>
+  </si>
+  <si>
+    <t>UUIDs für alle einzelnen Speicherelemente</t>
+  </si>
+  <si>
+    <t>UUIDs für für die Speicherelemente, die überschrieben werden</t>
   </si>
 </sst>
 </file>
@@ -493,6 +493,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -500,15 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +823,7 @@
         <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
       <c r="C3" s="4"/>
       <c r="E3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -860,12 +860,12 @@
       <c r="H5" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>129</v>
+      <c r="I5" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I6" s="10"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -916,32 +916,32 @@
       <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O11" s="9"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
         <v>116</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -968,13 +968,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1032,25 +1032,25 @@
         <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>114</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>116</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1077,13 +1077,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H27" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1138,28 +1138,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>114</v>
       </c>
       <c r="H35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>116</v>
       </c>
       <c r="I36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1186,26 +1186,26 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H38" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="I38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
         <v>111</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
         <v>108</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
@@ -1308,7 +1308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2927,28 +2927,28 @@
     </row>
     <row r="44" spans="6:21" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J44" s="2"/>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="Q44" s="6" t="s">
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="Q44" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
     </row>
     <row r="52" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4583,27 +4583,27 @@
       </c>
     </row>
     <row r="44" spans="6:21" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="Q44" s="6" t="s">
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="Q44" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5811,23 +5811,23 @@
       </c>
     </row>
     <row r="44" spans="5:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="I44" s="5" t="s">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="I44" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="N44" s="5" t="s">
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="N44" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6197,10 +6197,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="10"/>
       <c r="G14" t="s">
         <v>27</v>
       </c>

--- a/Beispieltabelle.xlsx
+++ b/Beispieltabelle.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="136">
   <si>
     <t>Schlüssel</t>
   </si>
@@ -333,9 +333,6 @@
     <t>Request-Empfänger</t>
   </si>
   <si>
-    <t>CRUD</t>
-  </si>
-  <si>
     <t>Persistenz</t>
   </si>
   <si>
@@ -433,6 +430,12 @@
   </si>
   <si>
     <t>UUIDs für für die Speicherelemente, die überschrieben werden</t>
+  </si>
+  <si>
+    <t>CRUD-Sender</t>
+  </si>
+  <si>
+    <t>CRUD-Empfänger</t>
   </si>
 </sst>
 </file>
@@ -790,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,10 +806,12 @@
     <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="102.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="102.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -817,487 +822,542 @@
         <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
         <v>110</v>
       </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>115</v>
       </c>
-      <c r="D7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F25" t="s">
         <v>115</v>
       </c>
-      <c r="F7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="H25" t="s">
         <v>115</v>
       </c>
-      <c r="H7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>0</v>
       </c>
       <c r="H26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" t="s">
         <v>132</v>
       </c>
-      <c r="H27" t="s">
-        <v>132</v>
-      </c>
-      <c r="I27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
         <v>120</v>
       </c>
-      <c r="B29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="C35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>115</v>
       </c>
-      <c r="D29" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="F36" t="s">
         <v>115</v>
       </c>
-      <c r="F29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="H36" t="s">
         <v>115</v>
       </c>
-      <c r="H29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>115</v>
+      </c>
+      <c r="K36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="H37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H38" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="J38" t="s">
+        <v>131</v>
+      </c>
+      <c r="K38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>123</v>
       </c>
-      <c r="H39" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>124</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" t="s">
+        <v>115</v>
+      </c>
+      <c r="J47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D49" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="F49" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="J49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>112</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D50" t="s">
         <v>112</v>
-      </c>
-      <c r="F42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47" t="s">
-        <v>116</v>
-      </c>
-      <c r="H47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" t="s">
-        <v>112</v>
-      </c>
-      <c r="F49" t="s">
-        <v>112</v>
-      </c>
-      <c r="H49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
